--- a/Ganadería/17.6.xlsx
+++ b/Ganadería/17.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ganadería\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF57E3B-6925-4174-90EF-136125B1B480}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E226EAF-E6F6-4808-9341-5A3F1151A373}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D62192CB-9652-42DC-A0CB-C034B131D204}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="A2:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Ganadería/17.6.xlsx
+++ b/Ganadería/17.6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ganadería\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ganadería\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4501E3E-E04A-4558-9102-4B8CC4693BBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7CF349-E92D-4B40-82D2-6BDD57FE4E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C3FE0F7F-E924-4772-AF9D-39E50E23893D}"/>
+    <workbookView xWindow="-23148" yWindow="-2160" windowWidth="23256" windowHeight="12576" xr2:uid="{C3FE0F7F-E924-4772-AF9D-39E50E23893D}"/>
   </bookViews>
   <sheets>
     <sheet name="importacion x destino ton" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1735,7 +1726,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,7 +1783,7 @@
         <v>11</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" t="s">
         <v>420</v>
@@ -1822,7 +1813,7 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>420</v>
@@ -1852,7 +1843,7 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>421</v>
@@ -1882,7 +1873,7 @@
         <v>11</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>421</v>
@@ -1912,7 +1903,7 @@
         <v>11</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
         <v>421</v>
@@ -1942,7 +1933,7 @@
         <v>11</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
         <v>421</v>
@@ -1972,7 +1963,7 @@
         <v>11</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
         <v>421</v>
@@ -2002,7 +1993,7 @@
         <v>11</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
         <v>421</v>
@@ -2032,7 +2023,7 @@
         <v>11</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>423</v>
@@ -2061,7 +2052,7 @@
         <v>11</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>423</v>
@@ -2091,7 +2082,7 @@
         <v>11</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>424</v>
@@ -2121,7 +2112,7 @@
         <v>11</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>424</v>
@@ -2151,7 +2142,7 @@
         <v>11</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>424</v>
@@ -2181,7 +2172,7 @@
         <v>11</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>424</v>
@@ -2211,7 +2202,7 @@
         <v>11</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>424</v>
@@ -2240,7 +2231,7 @@
         <v>11</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
         <v>428</v>
@@ -2269,7 +2260,7 @@
         <v>11</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
         <v>428</v>
@@ -2298,7 +2289,7 @@
         <v>11</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
         <v>428</v>
@@ -2327,7 +2318,7 @@
         <v>11</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
         <v>429</v>
@@ -2356,7 +2347,7 @@
         <v>11</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
         <v>429</v>
@@ -2385,7 +2376,7 @@
         <v>11</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
         <v>429</v>
@@ -2414,7 +2405,7 @@
         <v>11</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
         <v>430</v>
@@ -2443,7 +2434,7 @@
         <v>11</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
         <v>430</v>
@@ -2472,7 +2463,7 @@
         <v>11</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
         <v>430</v>
@@ -2501,7 +2492,7 @@
         <v>11</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
         <v>430</v>
@@ -2530,7 +2521,7 @@
         <v>11</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
         <v>430</v>
@@ -2559,7 +2550,7 @@
         <v>11</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
         <v>430</v>
@@ -2588,7 +2579,7 @@
         <v>11</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
         <v>430</v>
@@ -2617,7 +2608,7 @@
         <v>11</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F30" t="s">
         <v>430</v>
@@ -2646,7 +2637,7 @@
         <v>11</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
         <v>430</v>
